--- a/outputs-r202/test-g__RUG334.xlsx
+++ b/outputs-r202/test-g__RUG334.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="4">
   <si>
     <t>Row</t>
   </si>
@@ -46,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -56,14 +56,66 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,22 +134,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.9209686620696154</v>
       </c>
       <c r="C2">
         <v>1</v>

--- a/outputs-r202/test-g__RUG334.xlsx
+++ b/outputs-r202/test-g__RUG334.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Row</t>
   </si>
@@ -46,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -56,66 +56,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,18 +82,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
